--- a/media/temp/4/a_oth_5_4.xlsx
+++ b/media/temp/4/a_oth_5_4.xlsx
@@ -122,7 +122,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -162,6 +162,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
@@ -570,7 +573,7 @@
     <row r="3" ht="17.35" customHeight="1" s="8">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>За период с 21.01.2023 по 20.02.2023 г.</t>
+          <t>За период с 01.03.2023 по 31.03.2023 г.</t>
         </is>
       </c>
     </row>
@@ -588,12 +591,8 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" s="8">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>Ds основной :С O00 по O07.9</t>
-        </is>
-      </c>
+    <row r="6" ht="17.35" customHeight="1" s="8">
+      <c r="A6" s="10" t="n"/>
     </row>
     <row r="7" ht="31.3" customHeight="1" s="8">
       <c r="A7" s="11" t="inlineStr">
@@ -720,9 +719,271 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ХИРУРГИЯ N2</t>
+        </is>
+      </c>
+      <c r="B9" s="15" t="n">
+        <v>289</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>271</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>1027</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J9" s="15" t="n">
+        <v>166</v>
+      </c>
+      <c r="L9" s="15" t="n"/>
+      <c r="N9" s="15" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ХИРУРГИЯ N1</t>
+        </is>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>278</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>84</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>1006</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="J10" s="15" t="n">
+        <v>212</v>
+      </c>
+      <c r="L10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="15" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ОТОРИНОЛАРИНГОЛОГИЧЕ</t>
+        </is>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>199</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>784</v>
+      </c>
+      <c r="H11" s="15" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J11" s="15" t="n">
+        <v>179</v>
+      </c>
+      <c r="L11" s="15" t="n"/>
+      <c r="N11" s="15" t="n">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ПЕДИАТРИЧЕСКОЕ</t>
+        </is>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>121</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>95</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>767</v>
+      </c>
+      <c r="H12" s="15" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J12" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="L12" s="15" t="n"/>
+      <c r="N12" s="15" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ПАТОЛОГИИ НОВОРОЖД.и</t>
+        </is>
+      </c>
+      <c r="B13" s="15" t="n">
+        <v>133</v>
+      </c>
+      <c r="D13" s="15" t="n">
+        <v>133</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>872</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="J13" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="15" t="n">
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ТРАВМАТОЛОГО-ОРТОПЕД</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="n">
+        <v>105</v>
+      </c>
+      <c r="D14" s="15" t="n">
+        <v>62</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>499</v>
+      </c>
+      <c r="H14" s="15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>85</v>
+      </c>
+      <c r="L14" s="15" t="n"/>
+      <c r="N14" s="15" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>НЕВРОЛОГИЧЕСКОЕ</t>
+        </is>
+      </c>
+      <c r="B15" s="15" t="n">
+        <v>91</v>
+      </c>
+      <c r="D15" s="15" t="n">
+        <v>53</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>505</v>
+      </c>
+      <c r="H15" s="15" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="J15" s="15" t="n"/>
+      <c r="L15" s="15" t="n"/>
+      <c r="N15" s="15" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ТОКСИКОЛОГИЯ</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="H16" s="15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J16" s="15" t="n"/>
+      <c r="L16" s="15" t="n"/>
+      <c r="N16" s="15" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ОФТАЛЬМОЛОГИЧЕСКОЕ</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="n">
+        <v>136</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>683</v>
+      </c>
+      <c r="H17" s="15" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="J17" s="15" t="n">
+        <v>60</v>
+      </c>
+      <c r="L17" s="15" t="n"/>
+      <c r="N17" s="15" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>ВСЕГО</t>
         </is>
       </c>
+      <c r="B18" s="15" t="n">
+        <v>1361</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>799</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>6156</v>
+      </c>
+      <c r="H18" s="15" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="J18" s="15" t="n">
+        <v>729</v>
+      </c>
+      <c r="L18" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="15" t="n">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Средний возраст (кол-во лет)</t>
+        </is>
+      </c>
+      <c r="B19" s="15" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="C19" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
